--- a/beam/Assets/Levels/level7visual.xlsx
+++ b/beam/Assets/Levels/level7visual.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,8 +558,8 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -578,7 +578,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="P5" s="5"/>
       <c r="W5" s="1"/>
       <c r="X5">
         <v>2</v>
@@ -589,7 +590,8 @@
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="P6" s="5"/>
       <c r="W6" s="1"/>
       <c r="X6">
         <v>3</v>
@@ -600,6 +602,8 @@
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="P7" s="5"/>
       <c r="W7" s="1"/>
       <c r="X7">
         <v>4</v>
@@ -610,6 +614,8 @@
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="P8" s="5"/>
       <c r="W8" s="1"/>
       <c r="X8">
         <v>5</v>
@@ -621,6 +627,8 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="P9" s="5"/>
       <c r="W9" s="1"/>
       <c r="X9">
         <v>6</v>
@@ -635,6 +643,15 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="5"/>
       <c r="W10" s="1"/>
       <c r="X10">
         <v>7</v>
@@ -645,6 +662,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="1"/>
       <c r="X11">
         <v>8</v>
@@ -685,6 +709,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
+      <c r="Q15" s="7"/>
       <c r="W15" s="1"/>
       <c r="X15">
         <v>12</v>
@@ -695,6 +720,9 @@
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
+      <c r="Q16" s="5"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="1"/>
       <c r="X16">
         <v>13</v>
@@ -705,6 +733,26 @@
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
       <c r="W17" s="1"/>
       <c r="X17">
         <v>14</v>
